--- a/data/Transformer1.xlsx
+++ b/data/Transformer1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\projects\Tariff_Pilot\osh\Documents\ישיבות מגזר\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://afekacollege-my.sharepoint.com/personal/yariv_shossberger_s_afeka_ac_il/Documents/BSc_EEE/Final_BSc_Project/Part B/SM_Correlation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9355C987-824A-404E-9440-FE6059C9F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9355C987-824A-404E-9440-FE6059C9F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902711E0-53F7-4C59-A8AB-4C772A35D36A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="18500" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,13 +413,14 @@
   <dimension ref="A1:B8693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.08203125" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
